--- a/observations/orbit_plans/mtp043/nomad_mtp043_plan.xlsx
+++ b/observations/orbit_plans/mtp043/nomad_mtp043_plan.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp043\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AF2A6D-B6C6-4939-AD5A-0CE4D9CE2D79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="578">
   <si>
     <t>#orbitType</t>
   </si>
@@ -1753,8 +1759,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1791,6 +1797,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1837,7 +1851,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1869,9 +1883,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1903,6 +1935,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2078,14 +2128,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="I162" sqref="I162"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2126,7 +2178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>14</v>
       </c>
@@ -2140,7 +2192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2163,7 +2215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2180,7 +2232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2206,7 +2258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14</v>
       </c>
@@ -2220,7 +2272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2243,7 +2295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2260,7 +2312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2283,7 +2335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -2297,7 +2349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2323,7 +2375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14</v>
       </c>
@@ -2337,7 +2389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2363,7 +2415,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2377,7 +2429,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2400,7 +2452,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2426,7 +2478,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2440,7 +2492,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2463,7 +2515,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2477,7 +2529,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2503,7 +2555,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>14</v>
       </c>
@@ -2517,7 +2569,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2543,7 +2595,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2566,7 +2618,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2583,7 +2635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2606,7 +2658,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2620,7 +2672,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2643,7 +2695,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2669,7 +2721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>14</v>
       </c>
@@ -2683,7 +2735,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2706,7 +2758,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -2720,7 +2772,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2746,7 +2798,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2769,7 +2821,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>14</v>
       </c>
@@ -2783,7 +2835,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2806,7 +2858,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2823,7 +2875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2846,7 +2898,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2863,7 +2915,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2886,7 +2938,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2909,7 +2961,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2926,7 +2978,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2949,7 +3001,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>14</v>
       </c>
@@ -2963,7 +3015,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>14</v>
       </c>
@@ -2977,7 +3029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3003,7 +3055,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>14</v>
       </c>
@@ -3017,7 +3069,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3043,7 +3095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3066,7 +3118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>14</v>
       </c>
@@ -3080,7 +3132,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3106,7 +3158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>14</v>
       </c>
@@ -3120,7 +3172,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
@@ -3143,7 +3195,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3169,7 +3221,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>14</v>
       </c>
@@ -3183,7 +3235,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3206,7 +3258,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>14</v>
       </c>
@@ -3220,7 +3272,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3246,7 +3298,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3269,7 +3321,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>14</v>
       </c>
@@ -3283,7 +3335,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3309,7 +3361,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>14</v>
       </c>
@@ -3323,7 +3375,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3349,7 +3401,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>14</v>
       </c>
@@ -3363,7 +3415,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -3386,7 +3438,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3412,7 +3464,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>47</v>
       </c>
@@ -3432,7 +3484,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3446,7 +3498,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>47</v>
       </c>
@@ -3466,7 +3518,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>14</v>
       </c>
@@ -3480,7 +3532,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3506,7 +3558,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>14</v>
       </c>
@@ -3520,7 +3572,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -3543,7 +3595,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3560,7 +3612,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -3583,7 +3635,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3609,7 +3661,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -3623,7 +3675,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3646,7 +3698,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3663,7 +3715,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3686,7 +3738,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3709,7 +3761,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>14</v>
       </c>
@@ -3723,7 +3775,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3749,7 +3801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>14</v>
       </c>
@@ -3760,7 +3812,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>14</v>
       </c>
@@ -3774,7 +3826,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>3</v>
       </c>
@@ -3791,7 +3843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3814,7 +3866,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>14</v>
       </c>
@@ -3825,7 +3877,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>3</v>
       </c>
@@ -3842,7 +3894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3865,7 +3917,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>14</v>
       </c>
@@ -3879,7 +3931,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3905,7 +3957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>14</v>
       </c>
@@ -3919,7 +3971,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3942,7 +3994,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>3</v>
       </c>
@@ -3959,7 +4011,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>14</v>
       </c>
@@ -3973,7 +4025,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3996,7 +4048,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1</v>
       </c>
@@ -4019,7 +4071,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>3</v>
       </c>
@@ -4036,7 +4088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1</v>
       </c>
@@ -4059,7 +4111,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>3</v>
       </c>
@@ -4076,7 +4128,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
@@ -4099,7 +4151,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>14</v>
       </c>
@@ -4113,7 +4165,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1</v>
       </c>
@@ -4139,7 +4191,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
@@ -4162,7 +4214,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>14</v>
       </c>
@@ -4176,7 +4228,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
@@ -4202,7 +4254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>3</v>
       </c>
@@ -4219,7 +4271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1</v>
       </c>
@@ -4242,7 +4294,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4265,7 +4317,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>14</v>
       </c>
@@ -4279,7 +4331,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>28</v>
       </c>
@@ -4296,7 +4348,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>14</v>
       </c>
@@ -4310,7 +4362,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1</v>
       </c>
@@ -4333,7 +4385,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>7</v>
       </c>
@@ -4353,7 +4405,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
@@ -4379,7 +4431,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1</v>
       </c>
@@ -4402,7 +4454,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>14</v>
       </c>
@@ -4416,7 +4468,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1</v>
       </c>
@@ -4442,7 +4494,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>14</v>
       </c>
@@ -4456,7 +4508,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>14</v>
       </c>
@@ -4470,7 +4522,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4496,7 +4548,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>14</v>
       </c>
@@ -4510,7 +4562,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4536,7 +4588,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -4559,7 +4611,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>3</v>
       </c>
@@ -4576,7 +4628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1</v>
       </c>
@@ -4599,7 +4651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>14</v>
       </c>
@@ -4613,7 +4665,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4639,7 +4691,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>14</v>
       </c>
@@ -4653,7 +4705,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
@@ -4676,7 +4728,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4699,7 +4751,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>3</v>
       </c>
@@ -4716,7 +4768,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4739,7 +4791,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>14</v>
       </c>
@@ -4753,7 +4805,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1</v>
       </c>
@@ -4779,7 +4831,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1</v>
       </c>
@@ -4802,7 +4854,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>14</v>
       </c>
@@ -4816,7 +4868,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4839,7 +4891,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>14</v>
       </c>
@@ -4853,7 +4905,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4879,7 +4931,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4902,7 +4954,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>14</v>
       </c>
@@ -4916,7 +4968,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4939,7 +4991,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>3</v>
       </c>
@@ -4956,7 +5008,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4979,7 +5031,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>14</v>
       </c>
@@ -4993,7 +5045,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
@@ -5016,7 +5068,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1</v>
       </c>
@@ -5042,7 +5094,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>14</v>
       </c>
@@ -5056,7 +5108,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1</v>
       </c>
@@ -5082,7 +5134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>14</v>
       </c>
@@ -5096,7 +5148,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1</v>
       </c>
@@ -5119,7 +5171,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>3</v>
       </c>
@@ -5136,7 +5188,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1</v>
       </c>
@@ -5159,7 +5211,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>14</v>
       </c>
@@ -5173,7 +5225,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1</v>
       </c>
@@ -5196,7 +5248,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>3</v>
       </c>
@@ -5213,7 +5265,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5236,7 +5288,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>14</v>
       </c>
@@ -5250,7 +5302,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1</v>
       </c>
@@ -5276,7 +5328,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1</v>
       </c>
@@ -5299,15 +5351,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>3</v>
-      </c>
-      <c r="H162" t="s">
-        <v>38</v>
-      </c>
-      <c r="I162" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L162" t="s">
         <v>311</v>
@@ -5316,7 +5362,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>14</v>
       </c>
@@ -5330,7 +5376,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>14</v>
       </c>
@@ -5344,7 +5390,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
@@ -5370,7 +5416,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>47</v>
       </c>
@@ -5390,7 +5436,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>14</v>
       </c>
@@ -5404,7 +5450,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>14</v>
       </c>
@@ -5418,7 +5464,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -5441,7 +5487,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -5467,7 +5513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>14</v>
       </c>
@@ -5481,7 +5527,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>14</v>
       </c>
@@ -5492,7 +5538,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>3</v>
       </c>
@@ -5509,7 +5555,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
@@ -5532,7 +5578,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>14</v>
       </c>
@@ -5543,7 +5589,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>3</v>
       </c>
@@ -5560,7 +5606,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>14</v>
       </c>
@@ -5574,7 +5620,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1</v>
       </c>
@@ -5600,7 +5646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>14</v>
       </c>
@@ -5614,7 +5660,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>47</v>
       </c>
@@ -5634,7 +5680,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>3</v>
       </c>
@@ -5651,7 +5697,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>14</v>
       </c>
@@ -5665,7 +5711,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5688,7 +5734,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1</v>
       </c>
@@ -5711,7 +5757,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>3</v>
       </c>
@@ -5728,7 +5774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1</v>
       </c>
@@ -5751,7 +5797,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>3</v>
       </c>
@@ -5768,7 +5814,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1</v>
       </c>
@@ -5791,7 +5837,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>14</v>
       </c>
@@ -5805,7 +5851,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1</v>
       </c>
@@ -5828,7 +5874,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1</v>
       </c>
@@ -5851,7 +5897,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>3</v>
       </c>
@@ -5868,7 +5914,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1</v>
       </c>
@@ -5891,7 +5937,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>14</v>
       </c>
@@ -5905,7 +5951,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1</v>
       </c>
@@ -5928,7 +5974,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1</v>
       </c>
@@ -5951,7 +5997,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>7</v>
       </c>
@@ -5971,7 +6017,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1</v>
       </c>
@@ -5994,7 +6040,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>14</v>
       </c>
@@ -6008,7 +6054,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1</v>
       </c>
@@ -6034,7 +6080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1</v>
       </c>
@@ -6057,7 +6103,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>14</v>
       </c>
@@ -6071,7 +6117,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1</v>
       </c>
@@ -6094,7 +6140,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>14</v>
       </c>
@@ -6108,7 +6154,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1</v>
       </c>
@@ -6134,7 +6180,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>14</v>
       </c>
@@ -6148,7 +6194,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>14</v>
       </c>
@@ -6162,7 +6208,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1</v>
       </c>
@@ -6188,7 +6234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1</v>
       </c>
@@ -6211,7 +6257,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>3</v>
       </c>
@@ -6228,7 +6274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1</v>
       </c>
@@ -6251,7 +6297,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>3</v>
       </c>
@@ -6268,7 +6314,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1</v>
       </c>
@@ -6291,7 +6337,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>14</v>
       </c>
@@ -6305,7 +6351,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>28</v>
       </c>
@@ -6322,7 +6368,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>14</v>
       </c>
@@ -6336,7 +6382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1</v>
       </c>
@@ -6359,7 +6405,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1</v>
       </c>
@@ -6382,7 +6428,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>3</v>
       </c>
@@ -6399,7 +6445,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1</v>
       </c>
@@ -6422,7 +6468,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>14</v>
       </c>
@@ -6436,7 +6482,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1</v>
       </c>
@@ -6462,7 +6508,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1</v>
       </c>
@@ -6485,7 +6531,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>14</v>
       </c>
@@ -6499,7 +6545,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1</v>
       </c>
@@ -6522,7 +6568,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>14</v>
       </c>
@@ -6536,7 +6582,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1</v>
       </c>
@@ -6562,7 +6608,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1</v>
       </c>
@@ -6585,7 +6631,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>14</v>
       </c>
@@ -6599,7 +6645,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1</v>
       </c>
@@ -6622,7 +6668,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>3</v>
       </c>
@@ -6639,7 +6685,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1</v>
       </c>
@@ -6662,7 +6708,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>14</v>
       </c>
@@ -6676,7 +6722,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1</v>
       </c>
@@ -6699,7 +6745,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1</v>
       </c>
@@ -6725,7 +6771,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>14</v>
       </c>
@@ -6739,7 +6785,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1</v>
       </c>
@@ -6765,7 +6811,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>14</v>
       </c>
@@ -6779,7 +6825,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1</v>
       </c>
@@ -6802,7 +6848,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>3</v>
       </c>
@@ -6819,7 +6865,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1</v>
       </c>
@@ -6842,7 +6888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>14</v>
       </c>
@@ -6856,7 +6902,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1</v>
       </c>
@@ -6879,7 +6925,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>3</v>
       </c>
@@ -6896,7 +6942,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1</v>
       </c>
@@ -6919,7 +6965,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>8</v>
       </c>
@@ -6936,7 +6982,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1</v>
       </c>
@@ -6959,7 +7005,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1</v>
       </c>
@@ -6982,7 +7028,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>3</v>
       </c>
@@ -6999,7 +7045,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1</v>
       </c>
@@ -7022,7 +7068,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>14</v>
       </c>
@@ -7036,7 +7082,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1</v>
       </c>
@@ -7062,7 +7108,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1</v>
       </c>
@@ -7085,7 +7131,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>8</v>
       </c>
@@ -7102,7 +7148,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1</v>
       </c>
@@ -7125,7 +7171,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>14</v>
       </c>
@@ -7139,7 +7185,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1</v>
       </c>
@@ -7162,7 +7208,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>14</v>
       </c>
@@ -7173,7 +7219,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>3</v>
       </c>
@@ -7190,7 +7236,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1</v>
       </c>
@@ -7222,7 +7268,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1</v>
       </c>
@@ -7254,7 +7300,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>14</v>
       </c>
@@ -7268,7 +7314,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1</v>
       </c>
@@ -7303,7 +7349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>14</v>
       </c>
@@ -7317,7 +7363,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1</v>
       </c>
@@ -7349,7 +7395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>3</v>
       </c>
@@ -7366,7 +7412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1</v>
       </c>
@@ -7398,7 +7444,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1</v>
       </c>
@@ -7421,7 +7467,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>14</v>
       </c>
@@ -7435,7 +7481,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1</v>
       </c>
@@ -7470,7 +7516,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>14</v>
       </c>
@@ -7484,7 +7530,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1</v>
       </c>
@@ -7519,7 +7565,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1</v>
       </c>
@@ -7551,7 +7597,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>3</v>
       </c>
@@ -7568,7 +7614,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1</v>
       </c>
@@ -7600,7 +7646,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>14</v>
       </c>
@@ -7614,7 +7660,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1</v>
       </c>
@@ -7646,7 +7692,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1</v>
       </c>
@@ -7681,7 +7727,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>14</v>
       </c>
@@ -7695,7 +7741,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1</v>
       </c>
@@ -7727,7 +7773,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>3</v>
       </c>
@@ -7744,7 +7790,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1</v>
       </c>
@@ -7776,7 +7822,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>14</v>
       </c>
@@ -7790,7 +7836,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1</v>
       </c>
@@ -7822,7 +7868,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1</v>
       </c>
@@ -7854,7 +7900,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>3</v>
       </c>
@@ -7871,7 +7917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1</v>
       </c>
@@ -7903,7 +7949,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>14</v>
       </c>
@@ -7917,7 +7963,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1</v>
       </c>
@@ -7949,7 +7995,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>7</v>
       </c>
@@ -7969,7 +8015,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1</v>
       </c>
@@ -7992,7 +8038,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1</v>
       </c>
@@ -8024,7 +8070,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>14</v>
       </c>
@@ -8038,7 +8084,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>14</v>
       </c>
@@ -8052,7 +8098,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1</v>
       </c>
@@ -8087,7 +8133,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>14</v>
       </c>
@@ -8101,7 +8147,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1</v>
       </c>
@@ -8133,7 +8179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1</v>
       </c>
@@ -8165,7 +8211,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>14</v>
       </c>
@@ -8179,7 +8225,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>28</v>
       </c>
@@ -8205,7 +8251,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>14</v>
       </c>
@@ -8219,7 +8265,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1</v>
       </c>
@@ -8254,7 +8300,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1</v>
       </c>
@@ -8286,7 +8332,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>14</v>
       </c>
@@ -8300,7 +8346,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1</v>
       </c>
@@ -8332,7 +8378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>3</v>
       </c>
@@ -8349,7 +8395,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>14</v>
       </c>
@@ -8363,7 +8409,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1</v>
       </c>
@@ -8398,7 +8444,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>14</v>
       </c>
@@ -8412,7 +8458,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1</v>
       </c>
@@ -8444,7 +8490,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1</v>
       </c>
@@ -8479,7 +8525,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>14</v>
       </c>
@@ -8493,7 +8539,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>14</v>
       </c>
@@ -8507,7 +8553,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1</v>
       </c>
@@ -8542,7 +8588,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>14</v>
       </c>
@@ -8556,7 +8602,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1</v>
       </c>
@@ -8579,7 +8625,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>14</v>
       </c>
@@ -8593,7 +8639,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>14</v>
       </c>
@@ -8607,7 +8653,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1</v>
       </c>
@@ -8642,7 +8688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1</v>
       </c>
@@ -8674,7 +8720,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>14</v>
       </c>
@@ -8688,7 +8734,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1</v>
       </c>
@@ -8723,7 +8769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>14</v>
       </c>
@@ -8737,7 +8783,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>3</v>
       </c>
@@ -8754,7 +8800,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1</v>
       </c>
@@ -8786,7 +8832,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1</v>
       </c>
@@ -8818,7 +8864,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>3</v>
       </c>
@@ -8835,7 +8881,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1</v>
       </c>
@@ -8858,7 +8904,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>14</v>
       </c>
@@ -8872,7 +8918,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>14</v>
       </c>
@@ -8886,7 +8932,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>3</v>
       </c>
@@ -8903,7 +8949,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1</v>
       </c>
@@ -8935,7 +8981,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1</v>
       </c>
@@ -8967,7 +9013,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>14</v>
       </c>
@@ -8981,7 +9027,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1</v>
       </c>
@@ -9013,7 +9059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>3</v>
       </c>
@@ -9030,7 +9076,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>14</v>
       </c>
@@ -9044,7 +9090,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1</v>
       </c>
@@ -9076,7 +9122,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>28</v>
       </c>
@@ -9093,7 +9139,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1</v>
       </c>
@@ -9116,7 +9162,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1</v>
       </c>
@@ -9139,7 +9185,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>14</v>
       </c>
